--- a/templates/F-825-247L CMD-C.L00.00.C LLIF Dimension Measure Rev 21_final.xlsx
+++ b/templates/F-825-247L CMD-C.L00.00.C LLIF Dimension Measure Rev 21_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AI Records\Empty Templates\Fake 825\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan Nguyen\Desktop\Compare 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3CCEAE-25A4-48B4-9087-B787D121B592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87768448-FCD9-44F4-B034-298BE1A47574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,7 +617,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -682,9 +682,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -810,6 +807,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1264,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB24047-66BC-4595-9419-E1CF89BDCD35}">
   <dimension ref="A2:N72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.6" x14ac:dyDescent="0.4"/>
@@ -1285,478 +1288,478 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41" t="s">
+      <c r="H3" s="40"/>
+      <c r="I3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37" t="s">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37" t="s">
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37" t="s">
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37" t="s">
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37" t="s">
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37" t="s">
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37" t="s">
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37" t="s">
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
@@ -1770,18 +1773,18 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:14" ht="86.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
     </row>
     <row r="27" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="23" t="s">
@@ -1790,152 +1793,152 @@
       <c r="B27" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="52" t="s">
+      <c r="D27" s="52"/>
+      <c r="E27" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="50" t="s">
+      <c r="F27" s="52"/>
+      <c r="G27" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="54"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="27"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:14" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>1</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="26"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="25"/>
     </row>
     <row r="29" spans="1:14" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>2</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="26"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="25"/>
     </row>
     <row r="30" spans="1:14" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>3</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="26"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:14" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>4</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="26"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:14" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>5</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="26"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>6</v>
       </c>
       <c r="B33" s="8"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="26"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>7</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="26"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>8</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="26"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>9</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="26"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="25"/>
     </row>
     <row r="37" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="51"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:10" ht="74.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1946,34 +1949,34 @@
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.4">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="43">
+      <c r="B40" s="47"/>
+      <c r="C40" s="42">
         <v>0.5</v>
       </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43">
+      <c r="D40" s="42"/>
+      <c r="E40" s="42">
         <v>0.5</v>
       </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43">
+      <c r="F40" s="42"/>
+      <c r="G40" s="42">
         <v>0.5</v>
       </c>
-      <c r="H40" s="44"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="30"/>
     </row>
     <row r="41" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="21" t="s">
@@ -1983,26 +1986,26 @@
         <f t="shared" ref="B41:C41" si="0">B27</f>
         <v>Part Number</v>
       </c>
-      <c r="C41" s="49" t="str">
+      <c r="C41" s="48" t="str">
         <f t="shared" si="0"/>
         <v>Dim C
 Implant Height (mm)</v>
       </c>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49" t="str">
+      <c r="D41" s="48"/>
+      <c r="E41" s="48" t="str">
         <f>E27</f>
         <v>Dim B
 AP Depth (mm)</v>
       </c>
-      <c r="F41" s="49"/>
-      <c r="G41" s="50" t="str">
+      <c r="F41" s="48"/>
+      <c r="G41" s="49" t="str">
         <f>G27</f>
         <v>Dim A
 ML Width (mm)</v>
       </c>
-      <c r="H41" s="50"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="32"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="31"/>
     </row>
     <row r="42" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
@@ -2013,23 +2016,23 @@
         <f>'Data Entry'!B28</f>
         <v>0</v>
       </c>
-      <c r="C42" s="42" t="e">
+      <c r="C42" s="41" t="e">
         <f>ROUND(-VLOOKUP($B42,'Conv Tables'!$B$2:$E$23,2,FALSE)+C28,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42" t="e">
+      <c r="D42" s="41"/>
+      <c r="E42" s="41" t="e">
         <f>ROUND(-VLOOKUP($B42,'Conv Tables'!$B$2:$E$23,3,FALSE)+E28,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42" t="e">
+      <c r="F42" s="41"/>
+      <c r="G42" s="41" t="e">
         <f>ROUND(-VLOOKUP($B42,'Conv Tables'!$B$2:$E$23,4,FALSE)+G28,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H42" s="42"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="33"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
@@ -2040,23 +2043,23 @@
         <f>'Data Entry'!B29</f>
         <v>0</v>
       </c>
-      <c r="C43" s="42" t="e">
+      <c r="C43" s="41" t="e">
         <f>ROUND(-VLOOKUP($B43,'Conv Tables'!$B$2:$E$23,2,FALSE)+C29,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42" t="e">
+      <c r="D43" s="41"/>
+      <c r="E43" s="41" t="e">
         <f>ROUND(-VLOOKUP($B43,'Conv Tables'!$B$2:$E$23,3,FALSE)+E29,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42" t="e">
+      <c r="F43" s="41"/>
+      <c r="G43" s="41" t="e">
         <f>ROUND(-VLOOKUP($B43,'Conv Tables'!$B$2:$E$23,4,FALSE)+G29,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H43" s="42"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="33"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
@@ -2067,23 +2070,23 @@
         <f>'Data Entry'!B30</f>
         <v>0</v>
       </c>
-      <c r="C44" s="42" t="e">
+      <c r="C44" s="41" t="e">
         <f>ROUND(-VLOOKUP($B44,'Conv Tables'!$B$2:$E$23,2,FALSE)+C30,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42" t="e">
+      <c r="D44" s="41"/>
+      <c r="E44" s="41" t="e">
         <f>ROUND(-VLOOKUP($B44,'Conv Tables'!$B$2:$E$23,3,FALSE)+E30,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42" t="e">
+      <c r="F44" s="41"/>
+      <c r="G44" s="41" t="e">
         <f>ROUND(-VLOOKUP($B44,'Conv Tables'!$B$2:$E$23,4,FALSE)+G30,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H44" s="42"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="33"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
@@ -2094,23 +2097,23 @@
         <f>'Data Entry'!B31</f>
         <v>0</v>
       </c>
-      <c r="C45" s="42" t="e">
+      <c r="C45" s="41" t="e">
         <f>ROUND(-VLOOKUP($B45,'Conv Tables'!$B$2:$E$23,2,FALSE)+C31,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42" t="e">
+      <c r="D45" s="41"/>
+      <c r="E45" s="41" t="e">
         <f>ROUND(-VLOOKUP($B45,'Conv Tables'!$B$2:$E$23,3,FALSE)+E31,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42" t="e">
+      <c r="F45" s="41"/>
+      <c r="G45" s="41" t="e">
         <f>ROUND(-VLOOKUP($B45,'Conv Tables'!$B$2:$E$23,4,FALSE)+G31,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H45" s="42"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="33"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="32"/>
     </row>
     <row r="46" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
@@ -2121,23 +2124,23 @@
         <f>'Data Entry'!B32</f>
         <v>0</v>
       </c>
-      <c r="C46" s="42" t="e">
+      <c r="C46" s="41" t="e">
         <f>ROUND(-VLOOKUP($B46,'Conv Tables'!$B$2:$E$23,2,FALSE)+C32,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42" t="e">
+      <c r="D46" s="41"/>
+      <c r="E46" s="41" t="e">
         <f>ROUND(-VLOOKUP($B46,'Conv Tables'!$B$2:$E$23,3,FALSE)+E32,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42" t="e">
+      <c r="F46" s="41"/>
+      <c r="G46" s="41" t="e">
         <f>ROUND(-VLOOKUP($B46,'Conv Tables'!$B$2:$E$23,4,FALSE)+G32,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H46" s="42"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="33"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="32"/>
     </row>
     <row r="47" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
@@ -2148,23 +2151,23 @@
         <f>'Data Entry'!B33</f>
         <v>0</v>
       </c>
-      <c r="C47" s="42" t="e">
+      <c r="C47" s="41" t="e">
         <f>ROUND(-VLOOKUP($B47,'Conv Tables'!$B$2:$E$23,2,FALSE)+C33,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42" t="e">
+      <c r="D47" s="41"/>
+      <c r="E47" s="41" t="e">
         <f>ROUND(-VLOOKUP($B47,'Conv Tables'!$B$2:$E$23,3,FALSE)+E33,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42" t="e">
+      <c r="F47" s="41"/>
+      <c r="G47" s="41" t="e">
         <f>ROUND(-VLOOKUP($B47,'Conv Tables'!$B$2:$E$23,4,FALSE)+G33,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H47" s="42"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="33"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
@@ -2175,23 +2178,23 @@
         <f>'Data Entry'!B34</f>
         <v>0</v>
       </c>
-      <c r="C48" s="42" t="e">
+      <c r="C48" s="41" t="e">
         <f>ROUND(-VLOOKUP($B48,'Conv Tables'!$B$2:$E$23,2,FALSE)+C34,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42" t="e">
+      <c r="D48" s="41"/>
+      <c r="E48" s="41" t="e">
         <f>ROUND(-VLOOKUP($B48,'Conv Tables'!$B$2:$E$23,3,FALSE)+E34,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42" t="e">
+      <c r="F48" s="41"/>
+      <c r="G48" s="41" t="e">
         <f>ROUND(-VLOOKUP($B48,'Conv Tables'!$B$2:$E$23,4,FALSE)+G34,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H48" s="42"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="33"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="32"/>
     </row>
     <row r="49" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
@@ -2202,23 +2205,23 @@
         <f>'Data Entry'!B35</f>
         <v>0</v>
       </c>
-      <c r="C49" s="42" t="e">
+      <c r="C49" s="41" t="e">
         <f>ROUND(-VLOOKUP($B49,'Conv Tables'!$B$2:$E$23,2,FALSE)+C35,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42" t="e">
+      <c r="D49" s="41"/>
+      <c r="E49" s="41" t="e">
         <f>ROUND(-VLOOKUP($B49,'Conv Tables'!$B$2:$E$23,3,FALSE)+E35,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42" t="e">
+      <c r="F49" s="41"/>
+      <c r="G49" s="41" t="e">
         <f>ROUND(-VLOOKUP($B49,'Conv Tables'!$B$2:$E$23,4,FALSE)+G35,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H49" s="42"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="33"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="32"/>
     </row>
     <row r="50" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
@@ -2229,23 +2232,23 @@
         <f>'Data Entry'!B36</f>
         <v>0</v>
       </c>
-      <c r="C50" s="42" t="e">
+      <c r="C50" s="41" t="e">
         <f>ROUND(-VLOOKUP($B50,'Conv Tables'!$B$2:$E$23,2,FALSE)+C36,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42" t="e">
+      <c r="D50" s="41"/>
+      <c r="E50" s="41" t="e">
         <f>ROUND(-VLOOKUP($B50,'Conv Tables'!$B$2:$E$23,3,FALSE)+E36,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42" t="e">
+      <c r="F50" s="41"/>
+      <c r="G50" s="41" t="e">
         <f>ROUND(-VLOOKUP($B50,'Conv Tables'!$B$2:$E$23,4,FALSE)+G36,2)</f>
         <v>#N/A</v>
       </c>
-      <c r="H50" s="42"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="33"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="32"/>
     </row>
     <row r="51" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="12" t="s">
@@ -2258,14 +2261,14 @@
       <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="56" t="s">
+      <c r="A52" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
     </row>
     <row r="53" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="11"/>
@@ -2293,16 +2296,16 @@
       <c r="B55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="55"/>
-      <c r="E55" s="61" t="s">
+      <c r="D55" s="54"/>
+      <c r="E55" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
     </row>
     <row r="56" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
@@ -2311,88 +2314,88 @@
       <c r="B56" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="62">
+      <c r="C56" s="61">
         <v>45799</v>
       </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="60" t="s">
+      <c r="D56" s="66"/>
+      <c r="E56" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
     </row>
     <row r="57" spans="1:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="64">
+      <c r="C57" s="63">
         <v>45688</v>
       </c>
-      <c r="D57" s="65"/>
-      <c r="E57" s="66" t="s">
+      <c r="D57" s="64"/>
+      <c r="E57" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="64">
+      <c r="C58" s="63">
         <v>45593</v>
       </c>
-      <c r="D58" s="65"/>
-      <c r="E58" s="66" t="s">
+      <c r="D58" s="64"/>
+      <c r="E58" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="F58" s="66"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="66"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="64">
+      <c r="C59" s="63">
         <v>45582</v>
       </c>
-      <c r="D59" s="65"/>
-      <c r="E59" s="66" t="s">
+      <c r="D59" s="64"/>
+      <c r="E59" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="64">
+      <c r="C60" s="63">
         <v>45365</v>
       </c>
-      <c r="D60" s="65"/>
-      <c r="E60" s="66" t="s">
+      <c r="D60" s="64"/>
+      <c r="E60" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
     </row>
     <row r="61" spans="1:10" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="6" t="s">
@@ -2401,16 +2404,16 @@
       <c r="B61" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="62">
+      <c r="C61" s="61">
         <v>45148</v>
       </c>
-      <c r="D61" s="63"/>
-      <c r="E61" s="60" t="s">
+      <c r="D61" s="62"/>
+      <c r="E61" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
     </row>
     <row r="62" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
@@ -2419,16 +2422,16 @@
       <c r="B62" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="62">
+      <c r="C62" s="61">
         <v>45119</v>
       </c>
-      <c r="D62" s="63"/>
-      <c r="E62" s="60" t="s">
+      <c r="D62" s="62"/>
+      <c r="E62" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
     </row>
     <row r="63" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="6" t="s">
@@ -2437,16 +2440,16 @@
       <c r="B63" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="62">
+      <c r="C63" s="61">
         <v>44991</v>
       </c>
-      <c r="D63" s="63"/>
-      <c r="E63" s="60" t="s">
+      <c r="D63" s="62"/>
+      <c r="E63" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
     </row>
     <row r="64" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
@@ -2455,16 +2458,16 @@
       <c r="B64" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="59">
+      <c r="C64" s="58">
         <v>44803</v>
       </c>
-      <c r="D64" s="59"/>
-      <c r="E64" s="60" t="s">
+      <c r="D64" s="58"/>
+      <c r="E64" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
     </row>
     <row r="65" spans="1:8" ht="38.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="6" t="s">
@@ -2473,16 +2476,16 @@
       <c r="B65" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="59">
+      <c r="C65" s="58">
         <v>44693</v>
       </c>
-      <c r="D65" s="59"/>
-      <c r="E65" s="60" t="s">
+      <c r="D65" s="58"/>
+      <c r="E65" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
     </row>
     <row r="66" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="11"/>
